--- a/network_vs_no_network.xlsx
+++ b/network_vs_no_network.xlsx
@@ -507,16 +507,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000.720000000159</v>
+        <v>10.71999999999998</v>
       </c>
       <c r="C2" t="n">
-        <v>4990</v>
+        <v>-36</v>
       </c>
       <c r="D2" t="n">
-        <v>2552.26</v>
+        <v>48.96</v>
       </c>
       <c r="E2" t="n">
-        <v>2548372.58</v>
+        <v>546.8</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -524,25 +524,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3000.719999998367</v>
+        <v>1010.720000000161</v>
       </c>
       <c r="H2" t="n">
-        <v>14990</v>
+        <v>4964</v>
       </c>
       <c r="I2" t="n">
-        <v>7545.51</v>
+        <v>546.59</v>
       </c>
       <c r="J2" t="n">
-        <v>22624799.66</v>
+        <v>547328.03</v>
       </c>
       <c r="K2" t="n">
-        <v>1999.999999998208</v>
+        <v>1000.000000000161</v>
       </c>
       <c r="L2" t="n">
-        <v>20076427.08</v>
+        <v>546781.23</v>
       </c>
       <c r="M2" t="n">
-        <v>4993.25</v>
+        <v>497.6300000000001</v>
       </c>
     </row>
     <row r="3">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1000.850000000159</v>
+        <v>10.84999999999998</v>
       </c>
       <c r="C3" t="n">
-        <v>4998</v>
+        <v>-31</v>
       </c>
       <c r="D3" t="n">
-        <v>2556.74</v>
+        <v>50.84</v>
       </c>
       <c r="E3" t="n">
-        <v>2553178.89</v>
+        <v>567.92</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -569,25 +569,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3000.849999998366</v>
+        <v>1010.850000000161</v>
       </c>
       <c r="H3" t="n">
-        <v>14998</v>
+        <v>4969</v>
       </c>
       <c r="I3" t="n">
-        <v>7548.99</v>
+        <v>546.96</v>
       </c>
       <c r="J3" t="n">
-        <v>22636214.53</v>
+        <v>547767.99</v>
       </c>
       <c r="K3" t="n">
-        <v>1999.999999998207</v>
+        <v>1000.000000000161</v>
       </c>
       <c r="L3" t="n">
-        <v>20083035.64</v>
+        <v>547200.0699999999</v>
       </c>
       <c r="M3" t="n">
-        <v>4992.25</v>
+        <v>496.12</v>
       </c>
     </row>
     <row r="4">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1002.100000000159</v>
+        <v>12.09999999999997</v>
       </c>
       <c r="C4" t="n">
-        <v>5007</v>
+        <v>-23</v>
       </c>
       <c r="D4" t="n">
-        <v>2561.72</v>
+        <v>51.26</v>
       </c>
       <c r="E4" t="n">
-        <v>2559940.77</v>
+        <v>600.13</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -614,25 +614,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3002.099999998365</v>
+        <v>1012.100000000162</v>
       </c>
       <c r="H4" t="n">
-        <v>15007</v>
+        <v>4977</v>
       </c>
       <c r="I4" t="n">
-        <v>7557.97</v>
+        <v>548.88</v>
       </c>
       <c r="J4" t="n">
-        <v>22668426.04</v>
+        <v>550083.39</v>
       </c>
       <c r="K4" t="n">
-        <v>1999.999999998206</v>
+        <v>1000.000000000162</v>
       </c>
       <c r="L4" t="n">
-        <v>20108485.27</v>
+        <v>549483.26</v>
       </c>
       <c r="M4" t="n">
-        <v>4996.25</v>
+        <v>497.62</v>
       </c>
     </row>
     <row r="5">
@@ -642,16 +642,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1004.21000000016</v>
+        <v>14.20999999999997</v>
       </c>
       <c r="C5" t="n">
-        <v>5015</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>2561.28</v>
+        <v>51.34</v>
       </c>
       <c r="E5" t="n">
-        <v>2564896.51</v>
+        <v>687.48</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -659,25 +659,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3004.209999998363</v>
+        <v>1014.210000000162</v>
       </c>
       <c r="H5" t="n">
-        <v>15015</v>
+        <v>4999</v>
       </c>
       <c r="I5" t="n">
-        <v>7553.53</v>
+        <v>548.97</v>
       </c>
       <c r="J5" t="n">
-        <v>22671030.4</v>
+        <v>551310.73</v>
       </c>
       <c r="K5" t="n">
-        <v>1999.999999998204</v>
+        <v>1000.000000000162</v>
       </c>
       <c r="L5" t="n">
-        <v>20106133.89</v>
+        <v>550623.25</v>
       </c>
       <c r="M5" t="n">
-        <v>4992.25</v>
+        <v>497.63</v>
       </c>
     </row>
   </sheetData>
